--- a/MP/lab1/table.xlsx
+++ b/MP/lab1/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4sem\MP\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747296AA-BE13-4867-AD4C-CE99C9D25FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3A90F-9A2D-4158-BA31-33ED47B90227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{1FBD80A4-DFFB-4B35-B54A-0CB9CEBED3A7}"/>
   </bookViews>
